--- a/convolution_tailles.xlsx
+++ b/convolution_tailles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentinbouis/POLYMTL/INF8225/projet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B27D6859-C740-2548-8043-931EF17FD535}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCFB980-BB10-4E48-A0C1-59B249D4D8B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" xr2:uid="{429BFD7B-A38E-E24E-A773-DD175311F8C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{429BFD7B-A38E-E24E-A773-DD175311F8C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1379253-9452-5340-8DED-9DFC9854FFFB}">
   <dimension ref="D7:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D9" s="3">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
@@ -498,10 +498,10 @@
         <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>500</v>
+        <v>256</v>
       </c>
       <c r="F13" s="2">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.2">
@@ -519,11 +519,11 @@
       </c>
       <c r="E17" s="2">
         <f>(E13 - E9 +2*G9)/F9 + 1</f>
-        <v>500</v>
+        <v>256</v>
       </c>
       <c r="F17" s="2">
         <f>D9</f>
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
